--- a/docs/odh/shr-core-Dosage.xlsx
+++ b/docs/odh/shr-core-Dosage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="154">
   <si>
     <t>Path</t>
   </si>
@@ -259,7 +259,7 @@
     <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
   </si>
   <si>
-    <t>required</t>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
@@ -280,7 +280,7 @@
     <t>Dosage.timing</t>
   </si>
   <si>
-    <t xml:space="preserve">Timing {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Timing]]} {[]}
+    <t xml:space="preserve">Timing {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Timing]]} {[]}
 </t>
   </si>
   <si>
@@ -315,28 +315,15 @@
     <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
   </si>
   <si>
-    <t>Dosage.asNeededCodeableConcept</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
     <t>Dosage.site</t>
   </si>
   <si>
@@ -352,49 +339,52 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
     <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>How drug should enter body</t>
-  </si>
-  <si>
-    <t>How drug should enter body.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>Technique for administering medication</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
-  </si>
-  <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>
@@ -649,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -658,8 +648,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.87890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -682,13 +672,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.78515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.3828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -1654,26 +1644,28 @@
         <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X10" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="X10" t="s" s="2">
+      <c r="Y10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="Y10" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="Z10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB10" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AC10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
@@ -1687,16 +1679,14 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>37</v>
       </c>
@@ -1720,13 +1710,17 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>37</v>
       </c>
@@ -1750,11 +1744,11 @@
         <v>37</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>37</v>
@@ -1771,15 +1765,11 @@
       <c r="AD11" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>46</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>37</v>
       </c>
@@ -1787,12 +1777,12 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1818,16 +1808,14 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>37</v>
@@ -1852,11 +1840,13 @@
         <v>37</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>37</v>
@@ -1885,12 +1875,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1916,14 +1906,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N13" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>37</v>
@@ -1948,13 +1940,13 @@
         <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>37</v>
@@ -1983,12 +1975,12 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2011,19 +2003,19 @@
         <v>63</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>37</v>
@@ -2048,13 +2040,13 @@
         <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>37</v>
@@ -2083,12 +2075,12 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2111,19 +2103,19 @@
         <v>63</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>37</v>
@@ -2183,12 +2175,12 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2211,19 +2203,19 @@
         <v>63</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>37</v>
@@ -2283,12 +2275,12 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2311,19 +2303,17 @@
         <v>63</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>37</v>
@@ -2383,12 +2373,12 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2411,17 +2401,19 @@
         <v>63</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>37</v>
@@ -2481,111 +2473,11 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L19" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE19" s="2"/>
-      <c r="AF19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG19" s="2"/>
-      <c r="AH19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ19">
+  <autoFilter ref="A1:AJ18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2595,7 +2487,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI18">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
